--- a/ЗАВОДЫ/Черкизово UZ/2025/12,25/11,12,25 Черкизово Ташкент/дв 11,12,25 тшрсч чркзв от Шуваловой.xlsx
+++ b/ЗАВОДЫ/Черкизово UZ/2025/12,25/11,12,25 Черкизово Ташкент/дв 11,12,25 тшрсч чркзв от Шуваловой.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Черкизово UZ\2025\12,25\11,12,25 Черкизово Ташкент\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5878D5-CA0E-471F-A837-245B531AB879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8317BBF3-FACA-48D8-B8FC-AE08B0A481AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
